--- a/configuration/InstructorChatData.xlsx
+++ b/configuration/InstructorChatData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ryu\github\SoftwareTesting\configuration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65C550B1-5AAF-401E-B194-9D4B08C8DAD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9AEBF33-A759-4AF2-983C-0DE9F57D7A79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{6735EE98-777C-42F6-B0D3-103327B42419}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="16200" windowHeight="9308" xr2:uid="{6735EE98-777C-42F6-B0D3-103327B42419}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
     <t>Name</t>
   </si>
@@ -69,12 +69,6 @@
     <t>test5</t>
   </si>
   <si>
-    <t>bisa kak</t>
-  </si>
-  <si>
-    <t>ya betul</t>
-  </si>
-  <si>
     <t>sebenarnya</t>
   </si>
   <si>
@@ -82,6 +76,18 @@
   </si>
   <si>
     <t>juga betul</t>
+  </si>
+  <si>
+    <t>Student test 1</t>
+  </si>
+  <si>
+    <t>18 Maret 2025 ya kakk, jangan sampai lupa :)</t>
+  </si>
+  <si>
+    <t>Python Intermediate</t>
+  </si>
+  <si>
+    <t>bisa dengan menggunakan print('halo') kak</t>
   </si>
 </sst>
 </file>
@@ -442,7 +448,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D1"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -471,13 +477,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
@@ -485,13 +491,13 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
@@ -505,7 +511,7 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
@@ -519,7 +525,7 @@
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
@@ -533,7 +539,7 @@
         <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/configuration/InstructorChatData.xlsx
+++ b/configuration/InstructorChatData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ryu\github\SoftwareTesting\configuration\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\file\Kuliah\Softtest\Project\CodeMain\SoftwareTesting\configuration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65C550B1-5AAF-401E-B194-9D4B08C8DAD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2499417-9860-4BFD-A194-816CAD9BB3C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{6735EE98-777C-42F6-B0D3-103327B42419}"/>
+    <workbookView xWindow="1848" yWindow="1848" windowWidth="17280" windowHeight="8964" xr2:uid="{6735EE98-777C-42F6-B0D3-103327B42419}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,9 +51,6 @@
     <t>message</t>
   </si>
   <si>
-    <t>Acong Gemink</t>
-  </si>
-  <si>
     <t>Python Intro</t>
   </si>
   <si>
@@ -82,6 +79,9 @@
   </si>
   <si>
     <t>juga betul</t>
+  </si>
+  <si>
+    <t>student test</t>
   </si>
 </sst>
 </file>
@@ -441,18 +441,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1918AEF8-74E4-4E97-A52C-F5E6B8EF12CA}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D1"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.73046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -466,74 +466,74 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="D4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
         <v>5</v>
       </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="D5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
         <v>5</v>
       </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="D6" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
